--- a/test-results.xlsx
+++ b/test-results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnnyfreak/work/unil/new-aligner/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szenzaro/work/iliad-aligner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{F91107A7-B028-8C4F-A46D-8773F8EF5427}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE114855-E569-8C43-8478-17B66AF2BBEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16080" xr2:uid="{6CA32234-533A-F040-B343-0864799DC979}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21580" xr2:uid="{6CA32234-533A-F040-B343-0864799DC979}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="229">
   <si>
     <t>editType</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Features</t>
   </si>
   <si>
-    <t>Done?</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>editType lexicalSimilarity</t>
   </si>
   <si>
@@ -415,6 +409,309 @@
   </si>
   <si>
     <t>editType lexicalSimilarity lemmaDistance tagDistance vocDistance scholieDistance maxDistance</t>
+  </si>
+  <si>
+    <t>Score Accuracy</t>
+  </si>
+  <si>
+    <t>Edit Accuracy</t>
+  </si>
+  <si>
+    <t>learn time</t>
+  </si>
+  <si>
+    <t>align time</t>
+  </si>
+  <si>
+    <t>[0.32377729517521925 0.05768120482590059 0.033056428092450296 0.04779989747276937 0.8474166266941203 0.010500921635446114]</t>
+  </si>
+  <si>
+    <t>1h0m6.045824602s</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Result (weights)</t>
+  </si>
+  <si>
+    <t>2h2m8.278018661s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.2956361042981355 0.060325626401096885 0.033855873309357465 0.024419617049442562 0.8058173377380647 0.004187020307669374 0.1931506936628718]</t>
+  </si>
+  <si>
+    <t>14m47.762699621s</t>
+  </si>
+  <si>
+    <t>21m15.878080309s</t>
+  </si>
+  <si>
+    <t>[0.9]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>20m50.179110499s</t>
+  </si>
+  <si>
+    <t>[0.85]</t>
+  </si>
+  <si>
+    <t>19m12.587803691s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.85]</t>
+  </si>
+  <si>
+    <t>5h59m36.040075739s</t>
+  </si>
+  <si>
+    <t>14m59.384009589s</t>
+  </si>
+  <si>
+    <t>[0.8]</t>
+  </si>
+  <si>
+    <t>8h2m58.999155512s</t>
+  </si>
+  <si>
+    <t>20m56.191520565s</t>
+  </si>
+  <si>
+    <t>[0.95]</t>
+  </si>
+  <si>
+    <t>26h17m50.491816271s</t>
+  </si>
+  <si>
+    <t>57m44.47660614s</t>
+  </si>
+  <si>
+    <t>[0.9823248167243183 0.08796928485218454]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10h19m53.758591566s</t>
+  </si>
+  <si>
+    <t>28m13.622652985s</t>
+  </si>
+  <si>
+    <t>[0.9876016422316989 0.05106513423790793 0.06408514552131096]</t>
+  </si>
+  <si>
+    <t>15h58m50.500131743s</t>
+  </si>
+  <si>
+    <t>38m18.901994499s</t>
+  </si>
+  <si>
+    <t>[0.9795195083368412 0.06590152454286191 0.058403870034274816 0.0647592134866851]</t>
+  </si>
+  <si>
+    <t>19h51m40.417897948s</t>
+  </si>
+  <si>
+    <t>54m34.034353857s</t>
+  </si>
+  <si>
+    <t>[0.32881875481932366 0.06032268136304266 0.03715105485283671 0.0417505993040827 0.8517569551603327]</t>
+  </si>
+  <si>
+    <t>19h29m51.312637852s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 53m57.025711823s</t>
+  </si>
+  <si>
+    <t>[0.7031329478995774 0.7108770551481163]</t>
+  </si>
+  <si>
+    <t>13h16m50.004001045s</t>
+  </si>
+  <si>
+    <t>23m41.969962937s</t>
+  </si>
+  <si>
+    <t>[0.9731007077404514 0.2249266543989195]</t>
+  </si>
+  <si>
+    <t>11h32m48.798230945s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27m31.764852976s</t>
+  </si>
+  <si>
+    <t>[0.03514480597424488 0.9983346368935161]</t>
+  </si>
+  <si>
+    <t>7h47m56.919173563s</t>
+  </si>
+  <si>
+    <t>29m19.641322246s</t>
+  </si>
+  <si>
+    <t>[0.3528639227675147 0.5846344048851877]</t>
+  </si>
+  <si>
+    <t>11h3m5.542134247s</t>
+  </si>
+  <si>
+    <t>20m11.411059055s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.6479724128926083 0.7236625287869864 0.23542879768335956]</t>
+  </si>
+  <si>
+    <t>11h56m43.8716577s</t>
+  </si>
+  <si>
+    <t>39m26.061674572s</t>
+  </si>
+  <si>
+    <t>[0.07210728621129132 0.07320969761008919 0.9874885049189593]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9h13m36.225463224s</t>
+  </si>
+  <si>
+    <t>31m4.901353958s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.6935868970552519 0.7050262299912453 -0.13581061436971648]</t>
+  </si>
+  <si>
+    <t>9h52m36.427719712s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34m4.51151553s</t>
+  </si>
+  <si>
+    <t>[0.18351338277281468 0.1839445112316227 0.9652991345657037]</t>
+  </si>
+  <si>
+    <t>24h30m18.884973314s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54m44.937677587s</t>
+  </si>
+  <si>
+    <t>[0.4988291142619886 0.5758585657685054 0.22678119461190588 0.6063906163274977]</t>
+  </si>
+  <si>
+    <t>9h46m4.243175588s</t>
+  </si>
+  <si>
+    <t>41m3.546712549s</t>
+  </si>
+  <si>
+    <t>[0.6115811341671471 0.7356892661277182 0.27580067158627647 -0.08972365849298244]</t>
+  </si>
+  <si>
+    <t>14h21m10.006252626s</t>
+  </si>
+  <si>
+    <t>42m38.147993811s</t>
+  </si>
+  <si>
+    <t>[0.4064708812721375 0.4627221179505847 0.16247331940963963 0.7705939530342901]</t>
+  </si>
+  <si>
+    <t>19h32m37.387865503s</t>
+  </si>
+  <si>
+    <t>1h15m41.098786617s</t>
+  </si>
+  <si>
+    <t>[0.4707132950033771 0.4908338876539712 0.16746385722903842 0.7018696398397082 -0.12538120942722625]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14h17m57.973103866s</t>
+  </si>
+  <si>
+    <t>43m15.580186913s</t>
+  </si>
+  <si>
+    <t>[0.34259884471580077 0.430995367453298 0.151092212835316 0.43526080898193786 0.6956518291422059]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20h54m50.0033452s</t>
+  </si>
+  <si>
+    <t>1h15m5.016279516s</t>
+  </si>
+  <si>
+    <t>[0.9805878129675472 0.19323492738496734]</t>
+  </si>
+  <si>
+    <t>7h14m19.484750044s</t>
+  </si>
+  <si>
+    <t>32m22.953898329s</t>
+  </si>
+  <si>
+    <t>[0.02962767309952722 0.9982291781317949]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7h55m13.892899173s</t>
+  </si>
+  <si>
+    <t>28m42.309906888s</t>
+  </si>
+  <si>
+    <t>[0.9069378018817048 -0.08695186678156977]</t>
+  </si>
+  <si>
+    <t>6h37m37.070331272s</t>
+  </si>
+  <si>
+    <t>25m27.225938422s</t>
+  </si>
+  <si>
+    <t>[0.030355513919399925 0.9990731912096852]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29h27m6.355737717s</t>
+  </si>
+  <si>
+    <t>50m23.728507985s</t>
+  </si>
+  <si>
+    <t>[0.4354956090690649 0.0996298098088666 0.8930588563523342]</t>
+  </si>
+  <si>
+    <t>15h34m4.258158476s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22m47.865716356s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.9694892023445281 0.21055806121022563 -0.1139429056182659]</t>
+  </si>
+  <si>
+    <t>7h47m2.103056824s</t>
+  </si>
+  <si>
+    <t>37m34.320954474s</t>
+  </si>
+  <si>
+    <t>[0.026667159056527216 0.99825455601982 0.006873938455599292]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11h23m7.866092071s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33m48.010192555s</t>
+  </si>
+  <si>
+    <t>[0.032711847498454946 0.8348770804442063 0.3626285505783236]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24h42m49.921699846s</t>
+  </si>
+  <si>
+    <t>1h14m56.279849403s</t>
   </si>
 </sst>
 </file>
@@ -457,10 +754,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +777,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -775,588 +1073,1094 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE2C015-09BB-5C45-9873-75F289FC8FFC}">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="85.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.94752239935010896</v>
+      </c>
+      <c r="C2">
+        <v>0.39797291127851597</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1.1157178606248099</v>
+      </c>
+      <c r="C3">
+        <v>0.71726229906569905</v>
+      </c>
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>0.92757348261278005</v>
+      </c>
+      <c r="C19">
+        <v>0.67308641466420205</v>
+      </c>
+      <c r="D19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>0.92382806433018805</v>
+      </c>
+      <c r="C20">
+        <v>0.70591995056698897</v>
+      </c>
+      <c r="D20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>0.88073566248885005</v>
+      </c>
+      <c r="C24">
+        <v>0.77286943298708799</v>
+      </c>
+      <c r="D24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28">
+        <v>0.94000377972849603</v>
+      </c>
+      <c r="C28">
+        <v>0.77190371681204994</v>
+      </c>
+      <c r="D28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30">
+        <v>0.81587998295235298</v>
+      </c>
+      <c r="C30">
+        <v>0.76944383068394795</v>
+      </c>
+      <c r="D30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31">
+        <v>0.98511133771248705</v>
+      </c>
+      <c r="C31">
+        <v>0.77412730400655305</v>
+      </c>
+      <c r="E31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="3">
+        <v>-13193706441580.801</v>
+      </c>
+      <c r="C39">
+        <v>0.66658068973085205</v>
+      </c>
+      <c r="E39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47">
+        <v>0.91163308011535304</v>
+      </c>
+      <c r="C47">
+        <v>0.56877173454797503</v>
+      </c>
+      <c r="D47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>0.898531980492835</v>
+      </c>
+      <c r="C51">
+        <v>0.64092134640781295</v>
+      </c>
+      <c r="D51" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>9.6011816838995501E-3</v>
+      </c>
+      <c r="C52">
+        <v>0.47158649361493499</v>
+      </c>
+      <c r="D52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" t="s">
+        <v>150</v>
+      </c>
+      <c r="F52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <v>0.78392764726356401</v>
+      </c>
+      <c r="C67">
+        <v>0.75526539910817603</v>
+      </c>
+      <c r="D67" t="s">
+        <v>215</v>
+      </c>
+      <c r="E67" t="s">
+        <v>216</v>
+      </c>
+      <c r="F67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B68" s="3">
+        <v>35193738584711.203</v>
+      </c>
+      <c r="C68">
+        <v>0.71908910743681498</v>
+      </c>
+      <c r="D68" t="s">
+        <v>212</v>
+      </c>
+      <c r="E68" t="s">
+        <v>213</v>
+      </c>
+      <c r="F68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B70">
+        <v>1.02981921936527</v>
+      </c>
+      <c r="C70">
+        <v>0.78289964514944099</v>
+      </c>
+      <c r="D70" t="s">
+        <v>206</v>
+      </c>
+      <c r="E70" t="s">
+        <v>207</v>
+      </c>
+      <c r="F70" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72">
+        <v>1.23901466840592</v>
+      </c>
+      <c r="C72">
+        <v>0.78081284232342896</v>
+      </c>
+      <c r="D72" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" t="s">
+        <v>222</v>
+      </c>
+      <c r="F72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74">
+        <v>1.2583374516228201</v>
+      </c>
+      <c r="C74">
+        <v>0.77916294766980398</v>
+      </c>
+      <c r="D74" t="s">
+        <v>218</v>
+      </c>
+      <c r="E74" t="s">
+        <v>219</v>
+      </c>
+      <c r="F74" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78">
+        <v>0.85242442272605501</v>
+      </c>
+      <c r="C78">
+        <v>0.72055812655017804</v>
+      </c>
+      <c r="D78" t="s">
+        <v>209</v>
+      </c>
+      <c r="E78" t="s">
+        <v>210</v>
+      </c>
+      <c r="F78" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="B79">
+        <v>0.84552181766522405</v>
+      </c>
+      <c r="C79">
+        <v>0.75757930359417902</v>
+      </c>
+      <c r="D79" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" t="s">
+        <v>228</v>
+      </c>
+      <c r="F79" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="B80">
+        <v>0.85665058845739706</v>
+      </c>
+      <c r="C80">
+        <v>0.72301182141233</v>
+      </c>
+      <c r="D80" t="s">
+        <v>224</v>
+      </c>
+      <c r="E80" t="s">
+        <v>225</v>
+      </c>
+      <c r="F80" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>1.0984200399309501</v>
+      </c>
+      <c r="C82">
+        <v>0.70658586474852703</v>
+      </c>
+      <c r="E82" t="s">
+        <v>139</v>
+      </c>
+      <c r="F82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83">
+        <v>1.0899023335220099</v>
+      </c>
+      <c r="C83">
+        <v>0.74264778172386603</v>
+      </c>
+      <c r="D83" t="s">
+        <v>167</v>
+      </c>
+      <c r="E83" t="s">
+        <v>168</v>
+      </c>
+      <c r="F83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84">
+        <v>0.99306117628561297</v>
+      </c>
+      <c r="C84">
+        <v>0.77213268567983495</v>
+      </c>
+      <c r="D84" t="s">
+        <v>188</v>
+      </c>
+      <c r="E84" t="s">
+        <v>189</v>
+      </c>
+      <c r="F84" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85">
+        <v>1.0877969262699601</v>
+      </c>
+      <c r="C85">
+        <v>0.74347649956861395</v>
+      </c>
+      <c r="D85" t="s">
+        <v>185</v>
+      </c>
+      <c r="E85" t="s">
+        <v>186</v>
+      </c>
+      <c r="F85" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87">
+        <v>1.0871911329396799</v>
+      </c>
+      <c r="C87">
+        <v>0.80608802464918605</v>
+      </c>
+      <c r="D87" t="s">
+        <v>179</v>
+      </c>
+      <c r="E87" t="s">
+        <v>180</v>
+      </c>
+      <c r="F87" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1.1666244021049801</v>
+      </c>
+      <c r="C88">
+        <v>0.80290141962977501</v>
+      </c>
+      <c r="D88" t="s">
+        <v>197</v>
+      </c>
+      <c r="E88" t="s">
+        <v>198</v>
+      </c>
+      <c r="F88" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89">
+        <v>1.0897106200265601</v>
+      </c>
+      <c r="C89">
+        <v>0.80036249649664404</v>
+      </c>
+      <c r="D89" t="s">
+        <v>194</v>
+      </c>
+      <c r="E89" t="s">
+        <v>195</v>
+      </c>
+      <c r="F89" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91">
+        <v>1.1221128702415299</v>
+      </c>
+      <c r="C91">
+        <v>0.79619465499280595</v>
+      </c>
+      <c r="D91" t="s">
+        <v>191</v>
+      </c>
+      <c r="E91" t="s">
+        <v>192</v>
+      </c>
+      <c r="F91" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92">
+        <v>1.06766802865338</v>
+      </c>
+      <c r="C92">
+        <v>0.80372182608924703</v>
+      </c>
+      <c r="D92" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F92" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93">
+        <v>1.1489589145763901</v>
+      </c>
+      <c r="C93">
+        <v>0.80380006072087495</v>
+      </c>
+      <c r="D93" t="s">
+        <v>200</v>
+      </c>
+      <c r="E93" t="s">
+        <v>201</v>
+      </c>
+      <c r="F93" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95">
+        <v>2.16556926698052</v>
+      </c>
+      <c r="C95">
+        <v>0.74783413269761001</v>
+      </c>
+      <c r="D95" t="s">
+        <v>182</v>
+      </c>
+      <c r="E95" t="s">
+        <v>183</v>
+      </c>
+      <c r="F95" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100">
+        <v>1.1104666215410399</v>
+      </c>
+      <c r="C100">
+        <v>0.704975692516421</v>
+      </c>
+      <c r="D100" t="s">
+        <v>176</v>
+      </c>
+      <c r="E100" t="s">
+        <v>177</v>
+      </c>
+      <c r="F100" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102">
+        <v>1.0812886668235999</v>
+      </c>
+      <c r="C102">
+        <v>0.77323217916557996</v>
+      </c>
+      <c r="D102" t="s">
+        <v>170</v>
+      </c>
+      <c r="E102" t="s">
+        <v>171</v>
+      </c>
+      <c r="F102" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="B110">
+        <v>0.89958449555986797</v>
+      </c>
+      <c r="C110">
+        <v>0.71233514888534899</v>
+      </c>
+      <c r="D110" t="s">
+        <v>173</v>
+      </c>
+      <c r="E110" t="s">
+        <v>174</v>
+      </c>
+      <c r="F110" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
@@ -1371,7 +2175,7 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -1381,37 +2185,37 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
@@ -1421,23 +2225,20 @@
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A128">
-    <sortCondition ref="A2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test-results.xlsx
+++ b/test-results.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szenzaro/work/iliad-aligner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE114855-E569-8C43-8478-17B66AF2BBEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEE3162-AE34-F142-BF55-C7D88B1BCB4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21580" xr2:uid="{6CA32234-533A-F040-B343-0864799DC979}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21580" activeTab="1" xr2:uid="{6CA32234-533A-F040-B343-0864799DC979}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Feuil1!$A$1:$H$1</definedName>
+    <definedName name="test" localSheetId="1">Feuil1!$A$1:$H$26</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,8 +29,27 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{CACA593C-C29C-2E41-B7BF-C8DA57B70800}" name="test" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/szenzaro/work/iliad-aligner/out/test.log">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="357">
   <si>
     <t>editType</t>
   </si>
@@ -712,6 +736,390 @@
   </si>
   <si>
     <t>1h14m56.279849403s</t>
+  </si>
+  <si>
+    <t>Test Number</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Learn Time</t>
+  </si>
+  <si>
+    <t>Alignment Time</t>
+  </si>
+  <si>
+    <t>Weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TextualDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5h18m39.857670775s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5h6m27.06926723s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12m12.788403283s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.75]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TagDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4h24m48.00838519s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4h14m49.422809262s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9m58.585575456s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TextualDistance TagDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6h40m46.163259028s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6h25m42.330235211s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15m3.833023266s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.9235722071354513 0.28627725556157374]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [VocDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3h21m9.868926676s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3h13m42.418493606s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7m27.450432611s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.95]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TextualDistance VocDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5h32m57.957792129s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5h20m23.679138615s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12m34.278653071s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.7884245593904984 0.18336929865522775]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TagDistance VocDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4h40m34.552345369s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4h30m0.815891972s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10m33.736452651s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.209553597898772 0.7961404140551314]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TextualDistance TagDistance VocDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6h57m49.997303153s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6h42m8.300133619s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15m41.697169058s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.7236546391616836 0.36866973266725395 -0.13170937419077638]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ScholieDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12h3m47.953600518s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11h34m57.255793705s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28m50.697806402s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TextualDistance ScholieDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14h30m1.776192734s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13h55m52.227747636s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34m9.548444354s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.003238693524891807 0.9999222275734908]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TagDistance ScholieDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13h29m7.69560885s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12h57m13.710263173s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31m53.985344474s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.06588660382431627 0.9971793110682438]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TextualDistance TagDistance ScholieDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15h52m30.05766221s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15h15m15.139721286s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37m14.917940568s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.016899866686205172 0.06080083142013776 0.9973212008442809]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [VocDistance ScholieDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12h21m49.372107368s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11h52m26.5437983s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29m22.828308537s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.06860860133082566 0.9972831796751194]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TextualDistance VocDistance ScholieDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14h45m19.190922459s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14h10m35.197460753s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34m43.993461322s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-0.0006652528408523865 0.08105722228086669 0.9960453231154702]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TagDistance VocDistance ScholieDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13h49m19.05227519s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13h16m36.160759396s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32m42.891515046s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.06446111475314162 0.05517075303288917 0.9955188245432343]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TextualDistance TagDistance VocDistance ScholieDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16h11m44.661238538s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15h33m47.86630489s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37m56.79493288s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.013972230540878696 0.06232075331660625 0.045040061165475466 0.996001575258642]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [EqEquivTermDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3h21m19.490645201s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3h13m45.691583137s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7m33.799061654s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TextualDistance EqEquivTermDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5h28m37.949598531s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5h16m3.622153546s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12m34.327444619s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.016647575493436487 0.9990821026694828]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TagDistance EqEquivTermDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4h35m4.08528527s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4h24m35.768968923s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10m28.316315888s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.07235565633679639 0.9711249731733801]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TextualDistance TagDistance EqEquivTermDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6h54m6.999201559s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6h38m27.166406029s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15m39.832794985s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.06020502071630851 0.03760746170123157 0.9729423267826574]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [VocDistance EqEquivTermDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3h34m13.9253459s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3h26m18.199951529s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7m55.725393841s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.03719436358086054 0.9827872548213687]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TextualDistance VocDistance EqEquivTermDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5h44m33.59648651s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5h31m26.786625167s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13m6.809861021s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.048940270696841474 0.028721742867186935 0.9848014391028415]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TagDistance VocDistance EqEquivTermDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4h52m16.652145631s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4h41m13.393199856s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11m3.258944928s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.05332116083447726 0.041569176534216455 0.9504580294488104]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TextualDistance TagDistance VocDistance EqEquivTermDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7h11m59.009511414s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6h55m41.962861212s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16m17.046649671s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.05902006505374421 0.039586337212053506 -0.005360530816068619 0.9704797438836943]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ScholieDistance EqEquivTermDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12h19m8.408180165s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11h49m55.120415179s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29m13.287763946s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.8683889749594448 0.49264969716395424]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TextualDistance ScholieDistance EqEquivTermDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14h45m31.693852791s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14h10m42.474408769s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34m49.219443645s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.0070276105017222715 0.8606768716527329 0.5077291467486299]</t>
   </si>
 </sst>
 </file>
@@ -774,6 +1182,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test" connectionId="1" xr16:uid="{9F627CAA-BADC-A648-B32C-72724EBE3BA8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1075,7 +1487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE2C015-09BB-5C45-9873-75F289FC8FFC}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
@@ -2241,4 +2653,704 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEB70BC-EEE6-BF41-A547-15ABF05BD9E2}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="80.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2">
+        <v>0.64600536566280797</v>
+      </c>
+      <c r="D2">
+        <v>0.91888712345106005</v>
+      </c>
+      <c r="E2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3">
+        <v>0.68736817392597604</v>
+      </c>
+      <c r="D3">
+        <v>0.85742686714534999</v>
+      </c>
+      <c r="E3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4">
+        <v>0.74975215263685102</v>
+      </c>
+      <c r="D4">
+        <v>0.93225017431660895</v>
+      </c>
+      <c r="E4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5">
+        <v>0.56298238139188606</v>
+      </c>
+      <c r="D5">
+        <v>0.90685271154251801</v>
+      </c>
+      <c r="E5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6">
+        <v>0.66327628466280897</v>
+      </c>
+      <c r="D6">
+        <v>0.92400694170481001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7">
+        <v>0.70477925600384095</v>
+      </c>
+      <c r="D7">
+        <v>0.90258689360558597</v>
+      </c>
+      <c r="E7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8">
+        <v>0.75251430821473797</v>
+      </c>
+      <c r="D8">
+        <v>0.92971130969772198</v>
+      </c>
+      <c r="E8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9">
+        <v>0.47624820403623902</v>
+      </c>
+      <c r="D9">
+        <v>0.72596409372302595</v>
+      </c>
+      <c r="E9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" t="s">
+        <v>272</v>
+      </c>
+      <c r="H9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10">
+        <v>0.63439978276519304</v>
+      </c>
+      <c r="D10">
+        <v>0.74868675713888</v>
+      </c>
+      <c r="E10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G10" t="s">
+        <v>276</v>
+      </c>
+      <c r="H10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11">
+        <v>0.69049463644454501</v>
+      </c>
+      <c r="D11">
+        <v>0.75939955018525895</v>
+      </c>
+      <c r="E11" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" t="s">
+        <v>281</v>
+      </c>
+      <c r="H11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12">
+        <v>0.71432157780287497</v>
+      </c>
+      <c r="D12">
+        <v>0.76422108539761702</v>
+      </c>
+      <c r="E12" t="s">
+        <v>284</v>
+      </c>
+      <c r="F12" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13">
+        <v>0.551704335502884</v>
+      </c>
+      <c r="D13">
+        <v>0.75990761154246</v>
+      </c>
+      <c r="E13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" t="s">
+        <v>290</v>
+      </c>
+      <c r="G13" t="s">
+        <v>291</v>
+      </c>
+      <c r="H13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14">
+        <v>0.532538660509704</v>
+      </c>
+      <c r="D14">
+        <v>0.76181254388942998</v>
+      </c>
+      <c r="E14" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" t="s">
+        <v>296</v>
+      </c>
+      <c r="H14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15">
+        <v>0.716063473796552</v>
+      </c>
+      <c r="D15">
+        <v>0.76919323398302897</v>
+      </c>
+      <c r="E15" t="s">
+        <v>299</v>
+      </c>
+      <c r="F15" t="s">
+        <v>300</v>
+      </c>
+      <c r="G15" t="s">
+        <v>301</v>
+      </c>
+      <c r="H15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16">
+        <v>0.72428717595434999</v>
+      </c>
+      <c r="D16">
+        <v>0.771189112636958</v>
+      </c>
+      <c r="E16" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17">
+        <v>0.56497417242540604</v>
+      </c>
+      <c r="D17">
+        <v>0.63835548990644997</v>
+      </c>
+      <c r="E17" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" t="s">
+        <v>310</v>
+      </c>
+      <c r="G17" t="s">
+        <v>311</v>
+      </c>
+      <c r="H17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18">
+        <v>0.70878803233047805</v>
+      </c>
+      <c r="D18">
+        <v>0.95180721895615406</v>
+      </c>
+      <c r="E18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F18" t="s">
+        <v>314</v>
+      </c>
+      <c r="G18" t="s">
+        <v>315</v>
+      </c>
+      <c r="H18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19">
+        <v>0.72562431184922305</v>
+      </c>
+      <c r="D19">
+        <v>0.918361243135279</v>
+      </c>
+      <c r="E19" t="s">
+        <v>318</v>
+      </c>
+      <c r="F19" t="s">
+        <v>319</v>
+      </c>
+      <c r="G19" t="s">
+        <v>320</v>
+      </c>
+      <c r="H19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C20">
+        <v>0.786587560569879</v>
+      </c>
+      <c r="D20">
+        <v>0.95058662552837903</v>
+      </c>
+      <c r="E20" t="s">
+        <v>323</v>
+      </c>
+      <c r="F20" t="s">
+        <v>324</v>
+      </c>
+      <c r="G20" t="s">
+        <v>325</v>
+      </c>
+      <c r="H20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21">
+        <v>0.63245422184567601</v>
+      </c>
+      <c r="D21">
+        <v>0.94704861583521405</v>
+      </c>
+      <c r="E21" t="s">
+        <v>328</v>
+      </c>
+      <c r="F21" t="s">
+        <v>329</v>
+      </c>
+      <c r="G21" t="s">
+        <v>330</v>
+      </c>
+      <c r="H21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>332</v>
+      </c>
+      <c r="C22">
+        <v>0.71301449591863597</v>
+      </c>
+      <c r="D22">
+        <v>0.94908316414680405</v>
+      </c>
+      <c r="E22" t="s">
+        <v>333</v>
+      </c>
+      <c r="F22" t="s">
+        <v>334</v>
+      </c>
+      <c r="G22" t="s">
+        <v>335</v>
+      </c>
+      <c r="H22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>337</v>
+      </c>
+      <c r="C23">
+        <v>0.74540360526219496</v>
+      </c>
+      <c r="D23">
+        <v>0.93207686757521402</v>
+      </c>
+      <c r="E23" t="s">
+        <v>338</v>
+      </c>
+      <c r="F23" t="s">
+        <v>339</v>
+      </c>
+      <c r="G23" t="s">
+        <v>340</v>
+      </c>
+      <c r="H23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C24">
+        <v>0.78500672715743502</v>
+      </c>
+      <c r="D24">
+        <v>0.95006076441791398</v>
+      </c>
+      <c r="E24" t="s">
+        <v>343</v>
+      </c>
+      <c r="F24" t="s">
+        <v>344</v>
+      </c>
+      <c r="G24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H24" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C25">
+        <v>0.55495822047542398</v>
+      </c>
+      <c r="D25">
+        <v>0.762349495053811</v>
+      </c>
+      <c r="E25" t="s">
+        <v>348</v>
+      </c>
+      <c r="F25" t="s">
+        <v>349</v>
+      </c>
+      <c r="G25" t="s">
+        <v>350</v>
+      </c>
+      <c r="H25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C26">
+        <v>0.70204695418984298</v>
+      </c>
+      <c r="D26">
+        <v>0.77369524614621299</v>
+      </c>
+      <c r="E26" t="s">
+        <v>353</v>
+      </c>
+      <c r="F26" t="s">
+        <v>354</v>
+      </c>
+      <c r="G26" t="s">
+        <v>355</v>
+      </c>
+      <c r="H26" t="s">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test-results.xlsx
+++ b/test-results.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szenzaro/work/iliad-aligner/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnnyfreak/work/unil/new-aligner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEE3162-AE34-F142-BF55-C7D88B1BCB4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637F2DC3-62FC-964D-9C04-5EE0306C3152}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21580" activeTab="1" xr2:uid="{6CA32234-533A-F040-B343-0864799DC979}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{6CA32234-533A-F040-B343-0864799DC979}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
+    <sheet name="Old" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Feuil1!$A$1:$H$1</definedName>
-    <definedName name="test" localSheetId="1">Feuil1!$A$1:$H$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,27 +28,8 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{CACA593C-C29C-2E41-B7BF-C8DA57B70800}" name="test" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/szenzaro/work/iliad-aligner/out/test.log">
-      <textFields count="8">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="449">
   <si>
     <t>editType</t>
   </si>
@@ -1120,6 +1100,282 @@
   </si>
   <si>
     <t xml:space="preserve"> [0.0070276105017222715 0.8606768716527329 0.5077291467486299]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6460053656628086 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9188871234510602 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6873681739259769 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8574268671453509 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7497521526368519 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9322501743166094 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5629823813918866 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9068527115425187 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6632762846628092 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9240069417048102 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7047792560038417 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9025868936055864 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7525143082147384 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9297113096977228 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.47624820403623935 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7259640937230261 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6343997827651935 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.74868675713888 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6904946364445451 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7593995501852593 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.714321577802875 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7642210853976176 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5517043355028848 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.75990761154246 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5325386605097048 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7618125438894303 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7160634737965527 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.769193233983029 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.72428717595435 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7711891126369587 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5649741724254065 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.63835548990645 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7087880323304784 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9518072189561542 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7256243118492236 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.918361243135279 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7865875605698793 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9505866255283796 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.632454221845676 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9470486158352146 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7130144959186367 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.949083164146804 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7454036052621954 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9320768675752146 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7850067271574359 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9500607644179143 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5549582204754243 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7623494950538111 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7020469541898436 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7736952461462133 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TagDistance ScholieDistance EqEquivTermDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7391080307422958 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7769439969387832 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13h47m1.81950361s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13h14m32.419081518s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32m29.400421385s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.03412210866900017 0.8689054700780663 0.49204088333844737]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TextualDistance TagDistance ScholieDistance EqEquivTermDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7552353220075224 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7798790014373886 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16h12m39.04346299s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15h34m19.244955304s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38m19.798507146s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.01097656583701741 0.03787970522758509 0.8766090534069513 0.4765970760269912]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [VocDistance ScholieDistance EqEquivTermDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6370588750438223 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7729991399995806 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12h33m58.605620087s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12h4m10.309897748s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29m48.295721869s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.02035422604654383 0.8720346628361442 0.48559330508651743]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TextualDistance VocDistance ScholieDistance EqEquivTermDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7110419914437431 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7758024210090432 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15h10m1.966282638s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14h34m15.541667992s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35m46.424613837s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.0015315508626823474 0.02593177292437441 0.863897666866823 0.500617622689461]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TagDistance VocDistance ScholieDistance EqEquivTermDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7474546405668967 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7806675108448915 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17h2m25.679607083s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16h12m23.79394223s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50m1.88566408s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.043961759609716246 0.023492108777153013 0.9434342798422645 0.3266090219830218]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [TextualDistance TagDistance VocDistance ScholieDistance EqEquivTermDistance] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.755813993632767 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7896961107777825 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21h32m10.493972486s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20h33m46.643705974s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58m23.850265831s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.018152128930971186 0.10553455838275491 0.022886327036365627 0.9372600039747476 0.3281221741624806]</t>
   </si>
 </sst>
 </file>
@@ -1162,11 +1418,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1184,12 +1441,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test" connectionId="1" xr16:uid="{9F627CAA-BADC-A648-B32C-72724EBE3BA8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1484,10 +1737,874 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEB70BC-EEE6-BF41-A547-15ABF05BD9E2}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E4" t="s">
+        <v>445</v>
+      </c>
+      <c r="F4" t="s">
+        <v>446</v>
+      </c>
+      <c r="G4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G5" t="s">
+        <v>419</v>
+      </c>
+      <c r="H5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G8" t="s">
+        <v>440</v>
+      </c>
+      <c r="H8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G9" t="s">
+        <v>340</v>
+      </c>
+      <c r="H9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D10" t="s">
+        <v>409</v>
+      </c>
+      <c r="E10" t="s">
+        <v>410</v>
+      </c>
+      <c r="F10" t="s">
+        <v>411</v>
+      </c>
+      <c r="G10" t="s">
+        <v>412</v>
+      </c>
+      <c r="H10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D11" t="s">
+        <v>392</v>
+      </c>
+      <c r="E11" t="s">
+        <v>318</v>
+      </c>
+      <c r="F11" t="s">
+        <v>319</v>
+      </c>
+      <c r="G11" t="s">
+        <v>320</v>
+      </c>
+      <c r="H11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F12" t="s">
+        <v>305</v>
+      </c>
+      <c r="G12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G13" t="s">
+        <v>301</v>
+      </c>
+      <c r="H13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" t="s">
+        <v>286</v>
+      </c>
+      <c r="H14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D15" t="s">
+        <v>398</v>
+      </c>
+      <c r="E15" t="s">
+        <v>333</v>
+      </c>
+      <c r="F15" t="s">
+        <v>334</v>
+      </c>
+      <c r="G15" t="s">
+        <v>335</v>
+      </c>
+      <c r="H15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D16" t="s">
+        <v>430</v>
+      </c>
+      <c r="E16" t="s">
+        <v>431</v>
+      </c>
+      <c r="F16" t="s">
+        <v>432</v>
+      </c>
+      <c r="G16" t="s">
+        <v>433</v>
+      </c>
+      <c r="H16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D17" t="s">
+        <v>390</v>
+      </c>
+      <c r="E17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" t="s">
+        <v>314</v>
+      </c>
+      <c r="G17" t="s">
+        <v>315</v>
+      </c>
+      <c r="H17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D18" t="s">
+        <v>368</v>
+      </c>
+      <c r="E18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D19" t="s">
+        <v>406</v>
+      </c>
+      <c r="E19" t="s">
+        <v>353</v>
+      </c>
+      <c r="F19" t="s">
+        <v>354</v>
+      </c>
+      <c r="G19" t="s">
+        <v>355</v>
+      </c>
+      <c r="H19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D20" t="s">
+        <v>376</v>
+      </c>
+      <c r="E20" t="s">
+        <v>279</v>
+      </c>
+      <c r="F20" t="s">
+        <v>280</v>
+      </c>
+      <c r="G20" t="s">
+        <v>281</v>
+      </c>
+      <c r="H20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D21" t="s">
+        <v>360</v>
+      </c>
+      <c r="E21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F21" t="s">
+        <v>241</v>
+      </c>
+      <c r="G21" t="s">
+        <v>242</v>
+      </c>
+      <c r="H21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D22" t="s">
+        <v>366</v>
+      </c>
+      <c r="E22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" t="s">
+        <v>256</v>
+      </c>
+      <c r="G22" t="s">
+        <v>257</v>
+      </c>
+      <c r="H22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D23" t="s">
+        <v>358</v>
+      </c>
+      <c r="E23" t="s">
+        <v>235</v>
+      </c>
+      <c r="F23" t="s">
+        <v>236</v>
+      </c>
+      <c r="G23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>421</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D24" t="s">
+        <v>423</v>
+      </c>
+      <c r="E24" t="s">
+        <v>424</v>
+      </c>
+      <c r="F24" t="s">
+        <v>425</v>
+      </c>
+      <c r="G24" t="s">
+        <v>426</v>
+      </c>
+      <c r="H24" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D25" t="s">
+        <v>374</v>
+      </c>
+      <c r="E25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D26" t="s">
+        <v>396</v>
+      </c>
+      <c r="E26" t="s">
+        <v>328</v>
+      </c>
+      <c r="F26" t="s">
+        <v>329</v>
+      </c>
+      <c r="G26" t="s">
+        <v>330</v>
+      </c>
+      <c r="H26" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E27" t="s">
+        <v>309</v>
+      </c>
+      <c r="F27" t="s">
+        <v>310</v>
+      </c>
+      <c r="G27" t="s">
+        <v>311</v>
+      </c>
+      <c r="H27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E28" t="s">
+        <v>250</v>
+      </c>
+      <c r="F28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>347</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D29" t="s">
+        <v>404</v>
+      </c>
+      <c r="E29" t="s">
+        <v>348</v>
+      </c>
+      <c r="F29" t="s">
+        <v>349</v>
+      </c>
+      <c r="G29" t="s">
+        <v>350</v>
+      </c>
+      <c r="H29" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>288</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D30" t="s">
+        <v>380</v>
+      </c>
+      <c r="E30" t="s">
+        <v>289</v>
+      </c>
+      <c r="F30" t="s">
+        <v>290</v>
+      </c>
+      <c r="G30" t="s">
+        <v>291</v>
+      </c>
+      <c r="H30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D31" t="s">
+        <v>382</v>
+      </c>
+      <c r="E31" t="s">
+        <v>294</v>
+      </c>
+      <c r="F31" t="s">
+        <v>295</v>
+      </c>
+      <c r="G31" t="s">
+        <v>296</v>
+      </c>
+      <c r="H31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D32" t="s">
+        <v>372</v>
+      </c>
+      <c r="E32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" t="s">
+        <v>272</v>
+      </c>
+      <c r="H32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H32" xr:uid="{195C5800-2193-C943-99C9-CAB091218E19}">
+    <sortState ref="A2:H32">
+      <sortCondition descending="1" ref="C1:C32"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE2C015-09BB-5C45-9873-75F289FC8FFC}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A234" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
@@ -2653,704 +3770,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEB70BC-EEE6-BF41-A547-15ABF05BD9E2}">
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="80.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2">
-        <v>0.64600536566280797</v>
-      </c>
-      <c r="D2">
-        <v>0.91888712345106005</v>
-      </c>
-      <c r="E2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3">
-        <v>0.68736817392597604</v>
-      </c>
-      <c r="D3">
-        <v>0.85742686714534999</v>
-      </c>
-      <c r="E3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4">
-        <v>0.74975215263685102</v>
-      </c>
-      <c r="D4">
-        <v>0.93225017431660895</v>
-      </c>
-      <c r="E4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5">
-        <v>0.56298238139188606</v>
-      </c>
-      <c r="D5">
-        <v>0.90685271154251801</v>
-      </c>
-      <c r="E5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G5" t="s">
-        <v>252</v>
-      </c>
-      <c r="H5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6">
-        <v>0.66327628466280897</v>
-      </c>
-      <c r="D6">
-        <v>0.92400694170481001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F6" t="s">
-        <v>256</v>
-      </c>
-      <c r="G6" t="s">
-        <v>257</v>
-      </c>
-      <c r="H6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C7">
-        <v>0.70477925600384095</v>
-      </c>
-      <c r="D7">
-        <v>0.90258689360558597</v>
-      </c>
-      <c r="E7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C8">
-        <v>0.75251430821473797</v>
-      </c>
-      <c r="D8">
-        <v>0.92971130969772198</v>
-      </c>
-      <c r="E8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9">
-        <v>0.47624820403623902</v>
-      </c>
-      <c r="D9">
-        <v>0.72596409372302595</v>
-      </c>
-      <c r="E9" t="s">
-        <v>270</v>
-      </c>
-      <c r="F9" t="s">
-        <v>271</v>
-      </c>
-      <c r="G9" t="s">
-        <v>272</v>
-      </c>
-      <c r="H9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C10">
-        <v>0.63439978276519304</v>
-      </c>
-      <c r="D10">
-        <v>0.74868675713888</v>
-      </c>
-      <c r="E10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F10" t="s">
-        <v>275</v>
-      </c>
-      <c r="G10" t="s">
-        <v>276</v>
-      </c>
-      <c r="H10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C11">
-        <v>0.69049463644454501</v>
-      </c>
-      <c r="D11">
-        <v>0.75939955018525895</v>
-      </c>
-      <c r="E11" t="s">
-        <v>279</v>
-      </c>
-      <c r="F11" t="s">
-        <v>280</v>
-      </c>
-      <c r="G11" t="s">
-        <v>281</v>
-      </c>
-      <c r="H11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C12">
-        <v>0.71432157780287497</v>
-      </c>
-      <c r="D12">
-        <v>0.76422108539761702</v>
-      </c>
-      <c r="E12" t="s">
-        <v>284</v>
-      </c>
-      <c r="F12" t="s">
-        <v>285</v>
-      </c>
-      <c r="G12" t="s">
-        <v>286</v>
-      </c>
-      <c r="H12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>288</v>
-      </c>
-      <c r="C13">
-        <v>0.551704335502884</v>
-      </c>
-      <c r="D13">
-        <v>0.75990761154246</v>
-      </c>
-      <c r="E13" t="s">
-        <v>289</v>
-      </c>
-      <c r="F13" t="s">
-        <v>290</v>
-      </c>
-      <c r="G13" t="s">
-        <v>291</v>
-      </c>
-      <c r="H13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>293</v>
-      </c>
-      <c r="C14">
-        <v>0.532538660509704</v>
-      </c>
-      <c r="D14">
-        <v>0.76181254388942998</v>
-      </c>
-      <c r="E14" t="s">
-        <v>294</v>
-      </c>
-      <c r="F14" t="s">
-        <v>295</v>
-      </c>
-      <c r="G14" t="s">
-        <v>296</v>
-      </c>
-      <c r="H14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>298</v>
-      </c>
-      <c r="C15">
-        <v>0.716063473796552</v>
-      </c>
-      <c r="D15">
-        <v>0.76919323398302897</v>
-      </c>
-      <c r="E15" t="s">
-        <v>299</v>
-      </c>
-      <c r="F15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G15" t="s">
-        <v>301</v>
-      </c>
-      <c r="H15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>303</v>
-      </c>
-      <c r="C16">
-        <v>0.72428717595434999</v>
-      </c>
-      <c r="D16">
-        <v>0.771189112636958</v>
-      </c>
-      <c r="E16" t="s">
-        <v>304</v>
-      </c>
-      <c r="F16" t="s">
-        <v>305</v>
-      </c>
-      <c r="G16" t="s">
-        <v>306</v>
-      </c>
-      <c r="H16" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>308</v>
-      </c>
-      <c r="C17">
-        <v>0.56497417242540604</v>
-      </c>
-      <c r="D17">
-        <v>0.63835548990644997</v>
-      </c>
-      <c r="E17" t="s">
-        <v>309</v>
-      </c>
-      <c r="F17" t="s">
-        <v>310</v>
-      </c>
-      <c r="G17" t="s">
-        <v>311</v>
-      </c>
-      <c r="H17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>312</v>
-      </c>
-      <c r="C18">
-        <v>0.70878803233047805</v>
-      </c>
-      <c r="D18">
-        <v>0.95180721895615406</v>
-      </c>
-      <c r="E18" t="s">
-        <v>313</v>
-      </c>
-      <c r="F18" t="s">
-        <v>314</v>
-      </c>
-      <c r="G18" t="s">
-        <v>315</v>
-      </c>
-      <c r="H18" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>317</v>
-      </c>
-      <c r="C19">
-        <v>0.72562431184922305</v>
-      </c>
-      <c r="D19">
-        <v>0.918361243135279</v>
-      </c>
-      <c r="E19" t="s">
-        <v>318</v>
-      </c>
-      <c r="F19" t="s">
-        <v>319</v>
-      </c>
-      <c r="G19" t="s">
-        <v>320</v>
-      </c>
-      <c r="H19" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>322</v>
-      </c>
-      <c r="C20">
-        <v>0.786587560569879</v>
-      </c>
-      <c r="D20">
-        <v>0.95058662552837903</v>
-      </c>
-      <c r="E20" t="s">
-        <v>323</v>
-      </c>
-      <c r="F20" t="s">
-        <v>324</v>
-      </c>
-      <c r="G20" t="s">
-        <v>325</v>
-      </c>
-      <c r="H20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>327</v>
-      </c>
-      <c r="C21">
-        <v>0.63245422184567601</v>
-      </c>
-      <c r="D21">
-        <v>0.94704861583521405</v>
-      </c>
-      <c r="E21" t="s">
-        <v>328</v>
-      </c>
-      <c r="F21" t="s">
-        <v>329</v>
-      </c>
-      <c r="G21" t="s">
-        <v>330</v>
-      </c>
-      <c r="H21" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>332</v>
-      </c>
-      <c r="C22">
-        <v>0.71301449591863597</v>
-      </c>
-      <c r="D22">
-        <v>0.94908316414680405</v>
-      </c>
-      <c r="E22" t="s">
-        <v>333</v>
-      </c>
-      <c r="F22" t="s">
-        <v>334</v>
-      </c>
-      <c r="G22" t="s">
-        <v>335</v>
-      </c>
-      <c r="H22" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>337</v>
-      </c>
-      <c r="C23">
-        <v>0.74540360526219496</v>
-      </c>
-      <c r="D23">
-        <v>0.93207686757521402</v>
-      </c>
-      <c r="E23" t="s">
-        <v>338</v>
-      </c>
-      <c r="F23" t="s">
-        <v>339</v>
-      </c>
-      <c r="G23" t="s">
-        <v>340</v>
-      </c>
-      <c r="H23" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>342</v>
-      </c>
-      <c r="C24">
-        <v>0.78500672715743502</v>
-      </c>
-      <c r="D24">
-        <v>0.95006076441791398</v>
-      </c>
-      <c r="E24" t="s">
-        <v>343</v>
-      </c>
-      <c r="F24" t="s">
-        <v>344</v>
-      </c>
-      <c r="G24" t="s">
-        <v>345</v>
-      </c>
-      <c r="H24" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>347</v>
-      </c>
-      <c r="C25">
-        <v>0.55495822047542398</v>
-      </c>
-      <c r="D25">
-        <v>0.762349495053811</v>
-      </c>
-      <c r="E25" t="s">
-        <v>348</v>
-      </c>
-      <c r="F25" t="s">
-        <v>349</v>
-      </c>
-      <c r="G25" t="s">
-        <v>350</v>
-      </c>
-      <c r="H25" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>352</v>
-      </c>
-      <c r="C26">
-        <v>0.70204695418984298</v>
-      </c>
-      <c r="D26">
-        <v>0.77369524614621299</v>
-      </c>
-      <c r="E26" t="s">
-        <v>353</v>
-      </c>
-      <c r="F26" t="s">
-        <v>354</v>
-      </c>
-      <c r="G26" t="s">
-        <v>355</v>
-      </c>
-      <c r="H26" t="s">
-        <v>356</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/test-results.xlsx
+++ b/test-results.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnnyfreak/work/unil/new-aligner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637F2DC3-62FC-964D-9C04-5EE0306C3152}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9BF622-DDFF-EF43-9BE4-197B10431A5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{6CA32234-533A-F040-B343-0864799DC979}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
-    <sheet name="Old" sheetId="1" r:id="rId2"/>
+    <sheet name="Groupes de paroles" sheetId="2" r:id="rId1"/>
+    <sheet name="Parole individuel" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Groupes de paroles'!$A$1:$H$32</definedName>
+    <definedName name="test" localSheetId="1">'Parole individuel'!$A$234:$H$265</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,8 +29,27 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{0D93EC4F-766F-714B-84AD-2BFE36EA1BD3}" name="test" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/johnnyfreak/work/unil/new-aligner/out/test.log" decimal="," thousands=".">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="632">
   <si>
     <t>editType</t>
   </si>
@@ -1376,6 +1396,555 @@
   </si>
   <si>
     <t xml:space="preserve"> [0.018152128930971186 0.10553455838275491 0.022886327036365627 0.9372600039747476 0.3281221741624806]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6460441036018053 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9182583441023681 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1m12.005844654s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1m8.949614558s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.056229334s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7313972482555943 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8688562556138842 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57.652473568s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55.117260714s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.535212111s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7627252352929298 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9323657532891741 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1m27.6927072s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1m23.872060298s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.820645492s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.7780465051432722 0.361573624845574]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5666263348818414 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9074101427868033 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1m56.147754146s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1m51.170601034s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.977161349s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6607121083362799 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9179517665556324 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2m26.561597779s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2m20.120189391s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.441407194s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.13209048006901247 0.7375107052067816]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7385658636281163 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9055725408535144 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2m16.911959102s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2m11.231369785s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.680588226s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.21564118814516725 0.763595887303934]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7543599962233438 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9308234934450659 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2m42.684203965s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2m35.649901779s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.034301393s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.7721587529270157 0.311389901758531 -0.0957086423346051]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.4727662883714951 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7315194769642152 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6m8.226272468s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5m52.638238717s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.588032944s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6310331844517345 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7499210389165931 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6m47.837055634s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6m30.606433886s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.230620521s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.0021028267776896322 0.9999819094918612]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6859797208413686 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7549675170748391 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6m45.755425232s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6m28.450145758s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.305278686s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.0349067060959017 0.9992249069819943]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7176008930145011 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7632829322987933 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7m20.357983852s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7m1.789875406s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.568106867s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.02339615630016283 0.03557778461068316 0.9989221634927217]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5598816851676746 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7522757433573068 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6m46.920276585s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6m29.79224291s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.12803287s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.018997205066317538 0.9996277205507414]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6469362653664372 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7533851857945616 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8m18.943669257s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7m57.416238979s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21.527428901s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.003457159659646776 0.01887175152809487 0.9996156276926611]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7118585718635869 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7590670857998116 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8m12.93328154s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7m52.248064947s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20.685215514s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.030609191257516877 0.025709238615642217 0.9990478584193825]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7253355335441283 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7661728434192947 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7m42.452614548s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7m20.658999681s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21.793612299s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.022263052273630894 0.03288227652287101 0.02159687331271307 0.9987401831751166]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5638382187050903 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6244460856720826 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57.154039027s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54.740544917s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.413493237s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.708720191665519 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9489432549596193 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1m26.959231628s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1m23.185605875s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.773624824s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.01072392098999679 0.9978083386670796]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7635382630922175 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9208566632415632 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1m12.171605772s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1m9.048188866s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.123415161s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.06403232915982437 0.9714552207577174]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7855616398732845 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9443003492143572 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1m41.931586923s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1m37.532237588s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.399348562s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.02402921279534933 0.03759878774613314 0.9887131552975884]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6442529187106373 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9458081638532727 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2m18.202225421s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2m12.02137558s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.180848486s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.01787904430195945 0.9965381193214725]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6038477300238974 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9294058920078402 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2m50.283398515s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2m42.900960224s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.382437409s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-0.0032804115969475517 0.036807828514301075 0.9841804577342333]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7754494447075443 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9358243611541718 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2m37.026117506s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2m30.268306096s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.757810145s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.03228399135474106 0.031880548996659305 0.9848127206325458]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7843578328072176 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9410731936478263 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3m14.318365194s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3m6.017041966s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.301322289s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.008115368197727055 0.035529322131732814 0.030437419074219107 0.9840140926838572]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5421487583768477 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7517477422098818 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7m24.362256673s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6m57.619625195s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26.742630199s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.9613500618661648 0.27529673764945983]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6826686200485207 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7607652532182393 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11m12.033067438s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10m43.995381044s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28.037684321s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.004723228662270798 0.9573875023868688 0.2885483569130182]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7252111322722549 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7655602045010026 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7m11.306673668s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6m55.31341757s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.993255324s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.04130491504527951 0.9588152720229299 0.2805275661626042]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7480619020265362 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7746956809637691 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7m3.351739706s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6m44.772253819s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.579485269s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.027656138843014544 0.04413431797882389 0.9598925952509285 0.2737049481239855]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6245857861405596 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7621855639907402 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8m14.404592118s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7m50.35228421s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24.052306837s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.021469597600031996 0.9628400179256908 0.268475342983364]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6910522918092241 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7620697217801775 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9m1.405058166s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8m38.34281091s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23.062245152s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.0007959577679809794 0.01905078948715876 0.9605048307776725 0.27668998385436816]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7443716197173463 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7704808226500962 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8m30.978137464s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8m11.969762065s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19.008374449s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.04553471580203192 0.022944065681548702 0.9596076557051015 0.2758263824144332]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7517242420783323 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7777412513453302 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7m53.026037096s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7m32.867966824s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20.158068844s </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.027806860263440397 0.04653774787068005 0.01803539733221833 0.9604122350191368 0.2705193934801087]</t>
   </si>
 </sst>
 </file>
@@ -1439,6 +2008,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="test" connectionId="1" xr16:uid="{93BF0D9A-628A-BB45-AD0A-5E17507F7DA3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1740,7 +2313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEB70BC-EEE6-BF41-A547-15ABF05BD9E2}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2602,19 +3175,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE2C015-09BB-5C45-9873-75F289FC8FFC}">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:H265"/>
   <sheetViews>
     <sheetView topLeftCell="A234" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+      <selection activeCell="A234" sqref="A234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="80.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3767,6 +4341,838 @@
         <v>63</v>
       </c>
     </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" t="s">
+        <v>129</v>
+      </c>
+      <c r="D234" t="s">
+        <v>128</v>
+      </c>
+      <c r="E234" t="s">
+        <v>230</v>
+      </c>
+      <c r="F234" t="s">
+        <v>231</v>
+      </c>
+      <c r="G234" t="s">
+        <v>232</v>
+      </c>
+      <c r="H234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>1</v>
+      </c>
+      <c r="B235" t="s">
+        <v>234</v>
+      </c>
+      <c r="C235" t="s">
+        <v>449</v>
+      </c>
+      <c r="D235" t="s">
+        <v>450</v>
+      </c>
+      <c r="E235" t="s">
+        <v>451</v>
+      </c>
+      <c r="F235" t="s">
+        <v>452</v>
+      </c>
+      <c r="G235" t="s">
+        <v>453</v>
+      </c>
+      <c r="H235" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>2</v>
+      </c>
+      <c r="B236" t="s">
+        <v>239</v>
+      </c>
+      <c r="C236" t="s">
+        <v>455</v>
+      </c>
+      <c r="D236" t="s">
+        <v>456</v>
+      </c>
+      <c r="E236" t="s">
+        <v>457</v>
+      </c>
+      <c r="F236" t="s">
+        <v>458</v>
+      </c>
+      <c r="G236" t="s">
+        <v>459</v>
+      </c>
+      <c r="H236" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>3</v>
+      </c>
+      <c r="B237" t="s">
+        <v>244</v>
+      </c>
+      <c r="C237" t="s">
+        <v>460</v>
+      </c>
+      <c r="D237" t="s">
+        <v>461</v>
+      </c>
+      <c r="E237" t="s">
+        <v>462</v>
+      </c>
+      <c r="F237" t="s">
+        <v>463</v>
+      </c>
+      <c r="G237" t="s">
+        <v>464</v>
+      </c>
+      <c r="H237" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>4</v>
+      </c>
+      <c r="B238" t="s">
+        <v>249</v>
+      </c>
+      <c r="C238" t="s">
+        <v>466</v>
+      </c>
+      <c r="D238" t="s">
+        <v>467</v>
+      </c>
+      <c r="E238" t="s">
+        <v>468</v>
+      </c>
+      <c r="F238" t="s">
+        <v>469</v>
+      </c>
+      <c r="G238" t="s">
+        <v>470</v>
+      </c>
+      <c r="H238" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>5</v>
+      </c>
+      <c r="B239" t="s">
+        <v>254</v>
+      </c>
+      <c r="C239" t="s">
+        <v>472</v>
+      </c>
+      <c r="D239" t="s">
+        <v>473</v>
+      </c>
+      <c r="E239" t="s">
+        <v>474</v>
+      </c>
+      <c r="F239" t="s">
+        <v>475</v>
+      </c>
+      <c r="G239" t="s">
+        <v>476</v>
+      </c>
+      <c r="H239" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>6</v>
+      </c>
+      <c r="B240" t="s">
+        <v>259</v>
+      </c>
+      <c r="C240" t="s">
+        <v>478</v>
+      </c>
+      <c r="D240" t="s">
+        <v>479</v>
+      </c>
+      <c r="E240" t="s">
+        <v>480</v>
+      </c>
+      <c r="F240" t="s">
+        <v>481</v>
+      </c>
+      <c r="G240" t="s">
+        <v>482</v>
+      </c>
+      <c r="H240" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>7</v>
+      </c>
+      <c r="B241" t="s">
+        <v>264</v>
+      </c>
+      <c r="C241" t="s">
+        <v>484</v>
+      </c>
+      <c r="D241" t="s">
+        <v>485</v>
+      </c>
+      <c r="E241" t="s">
+        <v>486</v>
+      </c>
+      <c r="F241" t="s">
+        <v>487</v>
+      </c>
+      <c r="G241" t="s">
+        <v>488</v>
+      </c>
+      <c r="H241" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>8</v>
+      </c>
+      <c r="B242" t="s">
+        <v>269</v>
+      </c>
+      <c r="C242" t="s">
+        <v>490</v>
+      </c>
+      <c r="D242" t="s">
+        <v>491</v>
+      </c>
+      <c r="E242" t="s">
+        <v>492</v>
+      </c>
+      <c r="F242" t="s">
+        <v>493</v>
+      </c>
+      <c r="G242" t="s">
+        <v>494</v>
+      </c>
+      <c r="H242" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>9</v>
+      </c>
+      <c r="B243" t="s">
+        <v>273</v>
+      </c>
+      <c r="C243" t="s">
+        <v>495</v>
+      </c>
+      <c r="D243" t="s">
+        <v>496</v>
+      </c>
+      <c r="E243" t="s">
+        <v>497</v>
+      </c>
+      <c r="F243" t="s">
+        <v>498</v>
+      </c>
+      <c r="G243" t="s">
+        <v>499</v>
+      </c>
+      <c r="H243" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>10</v>
+      </c>
+      <c r="B244" t="s">
+        <v>278</v>
+      </c>
+      <c r="C244" t="s">
+        <v>501</v>
+      </c>
+      <c r="D244" t="s">
+        <v>502</v>
+      </c>
+      <c r="E244" t="s">
+        <v>503</v>
+      </c>
+      <c r="F244" t="s">
+        <v>504</v>
+      </c>
+      <c r="G244" t="s">
+        <v>505</v>
+      </c>
+      <c r="H244" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>11</v>
+      </c>
+      <c r="B245" t="s">
+        <v>283</v>
+      </c>
+      <c r="C245" t="s">
+        <v>507</v>
+      </c>
+      <c r="D245" t="s">
+        <v>508</v>
+      </c>
+      <c r="E245" t="s">
+        <v>509</v>
+      </c>
+      <c r="F245" t="s">
+        <v>510</v>
+      </c>
+      <c r="G245" t="s">
+        <v>511</v>
+      </c>
+      <c r="H245" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>12</v>
+      </c>
+      <c r="B246" t="s">
+        <v>288</v>
+      </c>
+      <c r="C246" t="s">
+        <v>513</v>
+      </c>
+      <c r="D246" t="s">
+        <v>514</v>
+      </c>
+      <c r="E246" t="s">
+        <v>515</v>
+      </c>
+      <c r="F246" t="s">
+        <v>516</v>
+      </c>
+      <c r="G246" t="s">
+        <v>517</v>
+      </c>
+      <c r="H246" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>13</v>
+      </c>
+      <c r="B247" t="s">
+        <v>293</v>
+      </c>
+      <c r="C247" t="s">
+        <v>519</v>
+      </c>
+      <c r="D247" t="s">
+        <v>520</v>
+      </c>
+      <c r="E247" t="s">
+        <v>521</v>
+      </c>
+      <c r="F247" t="s">
+        <v>522</v>
+      </c>
+      <c r="G247" t="s">
+        <v>523</v>
+      </c>
+      <c r="H247" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>14</v>
+      </c>
+      <c r="B248" t="s">
+        <v>298</v>
+      </c>
+      <c r="C248" t="s">
+        <v>525</v>
+      </c>
+      <c r="D248" t="s">
+        <v>526</v>
+      </c>
+      <c r="E248" t="s">
+        <v>527</v>
+      </c>
+      <c r="F248" t="s">
+        <v>528</v>
+      </c>
+      <c r="G248" t="s">
+        <v>529</v>
+      </c>
+      <c r="H248" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>15</v>
+      </c>
+      <c r="B249" t="s">
+        <v>303</v>
+      </c>
+      <c r="C249" t="s">
+        <v>531</v>
+      </c>
+      <c r="D249" t="s">
+        <v>532</v>
+      </c>
+      <c r="E249" t="s">
+        <v>533</v>
+      </c>
+      <c r="F249" t="s">
+        <v>534</v>
+      </c>
+      <c r="G249" t="s">
+        <v>535</v>
+      </c>
+      <c r="H249" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>16</v>
+      </c>
+      <c r="B250" t="s">
+        <v>308</v>
+      </c>
+      <c r="C250" t="s">
+        <v>537</v>
+      </c>
+      <c r="D250" t="s">
+        <v>538</v>
+      </c>
+      <c r="E250" t="s">
+        <v>539</v>
+      </c>
+      <c r="F250" t="s">
+        <v>540</v>
+      </c>
+      <c r="G250" t="s">
+        <v>541</v>
+      </c>
+      <c r="H250" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>17</v>
+      </c>
+      <c r="B251" t="s">
+        <v>312</v>
+      </c>
+      <c r="C251" t="s">
+        <v>542</v>
+      </c>
+      <c r="D251" t="s">
+        <v>543</v>
+      </c>
+      <c r="E251" t="s">
+        <v>544</v>
+      </c>
+      <c r="F251" t="s">
+        <v>545</v>
+      </c>
+      <c r="G251" t="s">
+        <v>546</v>
+      </c>
+      <c r="H251" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>18</v>
+      </c>
+      <c r="B252" t="s">
+        <v>317</v>
+      </c>
+      <c r="C252" t="s">
+        <v>548</v>
+      </c>
+      <c r="D252" t="s">
+        <v>549</v>
+      </c>
+      <c r="E252" t="s">
+        <v>550</v>
+      </c>
+      <c r="F252" t="s">
+        <v>551</v>
+      </c>
+      <c r="G252" t="s">
+        <v>552</v>
+      </c>
+      <c r="H252" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>19</v>
+      </c>
+      <c r="B253" t="s">
+        <v>322</v>
+      </c>
+      <c r="C253" t="s">
+        <v>554</v>
+      </c>
+      <c r="D253" t="s">
+        <v>555</v>
+      </c>
+      <c r="E253" t="s">
+        <v>556</v>
+      </c>
+      <c r="F253" t="s">
+        <v>557</v>
+      </c>
+      <c r="G253" t="s">
+        <v>558</v>
+      </c>
+      <c r="H253" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>20</v>
+      </c>
+      <c r="B254" t="s">
+        <v>327</v>
+      </c>
+      <c r="C254" t="s">
+        <v>560</v>
+      </c>
+      <c r="D254" t="s">
+        <v>561</v>
+      </c>
+      <c r="E254" t="s">
+        <v>562</v>
+      </c>
+      <c r="F254" t="s">
+        <v>563</v>
+      </c>
+      <c r="G254" t="s">
+        <v>564</v>
+      </c>
+      <c r="H254" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>21</v>
+      </c>
+      <c r="B255" t="s">
+        <v>332</v>
+      </c>
+      <c r="C255" t="s">
+        <v>566</v>
+      </c>
+      <c r="D255" t="s">
+        <v>567</v>
+      </c>
+      <c r="E255" t="s">
+        <v>568</v>
+      </c>
+      <c r="F255" t="s">
+        <v>569</v>
+      </c>
+      <c r="G255" t="s">
+        <v>570</v>
+      </c>
+      <c r="H255" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>22</v>
+      </c>
+      <c r="B256" t="s">
+        <v>337</v>
+      </c>
+      <c r="C256" t="s">
+        <v>572</v>
+      </c>
+      <c r="D256" t="s">
+        <v>573</v>
+      </c>
+      <c r="E256" t="s">
+        <v>574</v>
+      </c>
+      <c r="F256" t="s">
+        <v>575</v>
+      </c>
+      <c r="G256" t="s">
+        <v>576</v>
+      </c>
+      <c r="H256" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>23</v>
+      </c>
+      <c r="B257" t="s">
+        <v>342</v>
+      </c>
+      <c r="C257" t="s">
+        <v>578</v>
+      </c>
+      <c r="D257" t="s">
+        <v>579</v>
+      </c>
+      <c r="E257" t="s">
+        <v>580</v>
+      </c>
+      <c r="F257" t="s">
+        <v>581</v>
+      </c>
+      <c r="G257" t="s">
+        <v>582</v>
+      </c>
+      <c r="H257" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>24</v>
+      </c>
+      <c r="B258" t="s">
+        <v>347</v>
+      </c>
+      <c r="C258" t="s">
+        <v>584</v>
+      </c>
+      <c r="D258" t="s">
+        <v>585</v>
+      </c>
+      <c r="E258" t="s">
+        <v>586</v>
+      </c>
+      <c r="F258" t="s">
+        <v>587</v>
+      </c>
+      <c r="G258" t="s">
+        <v>588</v>
+      </c>
+      <c r="H258" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>25</v>
+      </c>
+      <c r="B259" t="s">
+        <v>352</v>
+      </c>
+      <c r="C259" t="s">
+        <v>590</v>
+      </c>
+      <c r="D259" t="s">
+        <v>591</v>
+      </c>
+      <c r="E259" t="s">
+        <v>592</v>
+      </c>
+      <c r="F259" t="s">
+        <v>593</v>
+      </c>
+      <c r="G259" t="s">
+        <v>594</v>
+      </c>
+      <c r="H259" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>26</v>
+      </c>
+      <c r="B260" t="s">
+        <v>407</v>
+      </c>
+      <c r="C260" t="s">
+        <v>596</v>
+      </c>
+      <c r="D260" t="s">
+        <v>597</v>
+      </c>
+      <c r="E260" t="s">
+        <v>598</v>
+      </c>
+      <c r="F260" t="s">
+        <v>599</v>
+      </c>
+      <c r="G260" t="s">
+        <v>600</v>
+      </c>
+      <c r="H260" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>27</v>
+      </c>
+      <c r="B261" t="s">
+        <v>414</v>
+      </c>
+      <c r="C261" t="s">
+        <v>602</v>
+      </c>
+      <c r="D261" t="s">
+        <v>603</v>
+      </c>
+      <c r="E261" t="s">
+        <v>604</v>
+      </c>
+      <c r="F261" t="s">
+        <v>605</v>
+      </c>
+      <c r="G261" t="s">
+        <v>606</v>
+      </c>
+      <c r="H261" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>28</v>
+      </c>
+      <c r="B262" t="s">
+        <v>421</v>
+      </c>
+      <c r="C262" t="s">
+        <v>608</v>
+      </c>
+      <c r="D262" t="s">
+        <v>609</v>
+      </c>
+      <c r="E262" t="s">
+        <v>610</v>
+      </c>
+      <c r="F262" t="s">
+        <v>611</v>
+      </c>
+      <c r="G262" t="s">
+        <v>612</v>
+      </c>
+      <c r="H262" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>29</v>
+      </c>
+      <c r="B263" t="s">
+        <v>428</v>
+      </c>
+      <c r="C263" t="s">
+        <v>614</v>
+      </c>
+      <c r="D263" t="s">
+        <v>615</v>
+      </c>
+      <c r="E263" t="s">
+        <v>616</v>
+      </c>
+      <c r="F263" t="s">
+        <v>617</v>
+      </c>
+      <c r="G263" t="s">
+        <v>618</v>
+      </c>
+      <c r="H263" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>30</v>
+      </c>
+      <c r="B264" t="s">
+        <v>435</v>
+      </c>
+      <c r="C264" t="s">
+        <v>620</v>
+      </c>
+      <c r="D264" t="s">
+        <v>621</v>
+      </c>
+      <c r="E264" t="s">
+        <v>622</v>
+      </c>
+      <c r="F264" t="s">
+        <v>623</v>
+      </c>
+      <c r="G264" t="s">
+        <v>624</v>
+      </c>
+      <c r="H264" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>31</v>
+      </c>
+      <c r="B265" t="s">
+        <v>442</v>
+      </c>
+      <c r="C265" t="s">
+        <v>626</v>
+      </c>
+      <c r="D265" t="s">
+        <v>627</v>
+      </c>
+      <c r="E265" t="s">
+        <v>628</v>
+      </c>
+      <c r="F265" t="s">
+        <v>629</v>
+      </c>
+      <c r="G265" t="s">
+        <v>630</v>
+      </c>
+      <c r="H265" t="s">
+        <v>631</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
